--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2731091.942996502</v>
+        <v>-2734003.529621562</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15.62903715748924</v>
+        <v>79.51149230610415</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>203.880431848295</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.753478554075919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -871,16 +871,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.8503534212809</v>
       </c>
       <c r="X4" t="n">
-        <v>156.8503534212801</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.67913628361556</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>72.36698404190619</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>100.077255155791</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>191.2696694406315</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.693472523613</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.63579206135118</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.9277415519438</v>
       </c>
       <c r="H8" t="n">
-        <v>78.29512941938738</v>
+        <v>199.5086183974473</v>
       </c>
       <c r="I8" t="n">
-        <v>80.36135769947609</v>
+        <v>80.36135769947651</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>132.1123490750252</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0756532307812</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>112.745806827384</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100.4230638718015</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5377351249805</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.22387407901913</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>138.1415617533796</v>
+        <v>138.1415617533798</v>
       </c>
       <c r="T9" t="n">
         <v>192.8861598652889</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>109.2226275092429</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>101.8345994506877</v>
+        <v>197.6333278520117</v>
       </c>
       <c r="T10" t="n">
-        <v>221.4770776980095</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2364526109981</v>
+        <v>261.8747840561514</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1895,10 +1895,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>59.66990246485271</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833735</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,10 +2381,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.2562870115476</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710114</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261742</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541853</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206868</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002292</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652633</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.02223045762</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541837</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701387</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898977</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,19 +3715,19 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317884</v>
       </c>
       <c r="W40" t="n">
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600552</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634843</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.3553494954602</v>
+        <v>101.411749093155</v>
       </c>
       <c r="C2" t="n">
-        <v>153.3553494954602</v>
+        <v>101.411749093155</v>
       </c>
       <c r="D2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791755</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052536</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.51749475159</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030597</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991306</v>
+        <v>704.5463761991311</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358402</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601761</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946875</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298155</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298155</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="V2" t="n">
-        <v>419.7330060626379</v>
+        <v>634.1670622275108</v>
       </c>
       <c r="W2" t="n">
-        <v>419.7330060626379</v>
+        <v>634.1670622275108</v>
       </c>
       <c r="X2" t="n">
-        <v>419.7330060626379</v>
+        <v>367.7894056603329</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.7330060626379</v>
+        <v>367.7894056603329</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957454</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263947</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557294</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891328</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212813</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212813</v>
+        <v>906.219221609864</v>
       </c>
       <c r="T3" t="n">
-        <v>839.710557844251</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="U3" t="n">
-        <v>839.710557844251</v>
+        <v>481.2742972781151</v>
       </c>
       <c r="V3" t="n">
-        <v>604.5584496125082</v>
+        <v>481.2742972781151</v>
       </c>
       <c r="W3" t="n">
-        <v>350.3210928843066</v>
+        <v>227.0369405499135</v>
       </c>
       <c r="X3" t="n">
-        <v>350.3210928843066</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y3" t="n">
-        <v>348.549902425644</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287936</v>
+        <v>126.4133765287943</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726550998</v>
+        <v>316.7083726551006</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375323</v>
+        <v>527.7368878375332</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227033</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075528</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816801</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407061</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407061</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987204</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="U4" t="n">
-        <v>434.2162990315428</v>
+        <v>434.2162990315437</v>
       </c>
       <c r="V4" t="n">
-        <v>179.5318108256559</v>
+        <v>179.5318108256568</v>
       </c>
       <c r="W4" t="n">
-        <v>179.5318108256559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356494</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,19 +4565,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946886</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358173</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>380.4820441686394</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W5" t="n">
-        <v>380.4820441686394</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899463</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899463</v>
+        <v>320.3587892151035</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="D6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557294</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891328</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.046441637462</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742754</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7089093706072</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>122.1852469211215</v>
       </c>
     </row>
     <row r="7">
@@ -4726,46 +4726,46 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>943.0439315983344</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>736.2568970088458</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>736.2568970088458</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>101.5373044014853</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y7" t="n">
         <v>21.09711040012049</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>994.3070811916782</v>
+        <v>1106.048130512623</v>
       </c>
       <c r="C8" t="n">
-        <v>625.3445642512665</v>
+        <v>1106.048130512623</v>
       </c>
       <c r="D8" t="n">
-        <v>625.3445642512665</v>
+        <v>747.7824319058727</v>
       </c>
       <c r="E8" t="n">
-        <v>625.3445642512665</v>
+        <v>747.7824319058727</v>
       </c>
       <c r="F8" t="n">
-        <v>618.3990635020631</v>
+        <v>740.8369311566693</v>
       </c>
       <c r="G8" t="n">
-        <v>202.3104356718168</v>
+        <v>324.748303326423</v>
       </c>
       <c r="H8" t="n">
-        <v>123.2244463593043</v>
+        <v>123.2244463593045</v>
       </c>
       <c r="I8" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="J8" t="n">
-        <v>146.3999902871479</v>
+        <v>146.3999902871466</v>
       </c>
       <c r="K8" t="n">
-        <v>353.5300590778755</v>
+        <v>353.5300590778727</v>
       </c>
       <c r="L8" t="n">
-        <v>647.3949869642743</v>
+        <v>647.3949869642704</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.045778391758</v>
+        <v>1006.045778391753</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.113722961231</v>
+        <v>1375.113722961224</v>
       </c>
       <c r="O8" t="n">
-        <v>1710.278856235966</v>
+        <v>1710.278856235956</v>
       </c>
       <c r="P8" t="n">
-        <v>1961.833542307583</v>
+        <v>1961.833542307572</v>
       </c>
       <c r="Q8" t="n">
-        <v>2102.567888698744</v>
+        <v>2102.567888698732</v>
       </c>
       <c r="R8" t="n">
-        <v>2102.567888698744</v>
+        <v>2102.567888698732</v>
       </c>
       <c r="S8" t="n">
-        <v>1969.121071451244</v>
+        <v>2102.567888698732</v>
       </c>
       <c r="T8" t="n">
-        <v>1969.121071451244</v>
+        <v>2102.567888698732</v>
       </c>
       <c r="U8" t="n">
-        <v>1715.50930051106</v>
+        <v>1848.956117758549</v>
       </c>
       <c r="V8" t="n">
-        <v>1384.44641316749</v>
+        <v>1848.956117758549</v>
       </c>
       <c r="W8" t="n">
-        <v>1384.44641316749</v>
+        <v>1496.187462488435</v>
       </c>
       <c r="X8" t="n">
-        <v>1384.44641316749</v>
+        <v>1496.187462488435</v>
       </c>
       <c r="Y8" t="n">
-        <v>994.3070811916782</v>
+        <v>1106.048130512623</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>466.8762349707097</v>
+        <v>466.8762349706979</v>
       </c>
       <c r="C9" t="n">
-        <v>352.9915816097158</v>
+        <v>292.4232056895709</v>
       </c>
       <c r="D9" t="n">
-        <v>352.9915816097158</v>
+        <v>143.4887960283196</v>
       </c>
       <c r="E9" t="n">
-        <v>352.9915816097158</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="F9" t="n">
-        <v>206.4570236366008</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="G9" t="n">
-        <v>69.5502204800548</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="H9" t="n">
-        <v>69.5502204800548</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="I9" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3828414821302</v>
+        <v>85.38284148212941</v>
       </c>
       <c r="K9" t="n">
-        <v>237.5980736014726</v>
+        <v>237.5980736014708</v>
       </c>
       <c r="L9" t="n">
-        <v>488.5927788674464</v>
+        <v>488.5927788674434</v>
       </c>
       <c r="M9" t="n">
-        <v>800.8486294296802</v>
+        <v>800.8486294296756</v>
       </c>
       <c r="N9" t="n">
-        <v>1135.777608125762</v>
+        <v>1135.777608125755</v>
       </c>
       <c r="O9" t="n">
-        <v>1419.952394746768</v>
+        <v>1419.952394746761</v>
       </c>
       <c r="P9" t="n">
-        <v>1793.132438346989</v>
+        <v>1793.132438346978</v>
       </c>
       <c r="Q9" t="n">
-        <v>2090.728425089451</v>
+        <v>2090.728425089439</v>
       </c>
       <c r="R9" t="n">
-        <v>2102.567888698744</v>
+        <v>2102.567888698732</v>
       </c>
       <c r="S9" t="n">
-        <v>1963.030957634724</v>
+        <v>1963.030957634712</v>
       </c>
       <c r="T9" t="n">
-        <v>1768.196452720291</v>
+        <v>1768.196452720279</v>
       </c>
       <c r="U9" t="n">
-        <v>1540.092835921209</v>
+        <v>1540.092835921197</v>
       </c>
       <c r="V9" t="n">
-        <v>1304.940727689466</v>
+        <v>1304.940727689454</v>
       </c>
       <c r="W9" t="n">
-        <v>1050.703370961264</v>
+        <v>1050.703370961253</v>
       </c>
       <c r="X9" t="n">
-        <v>842.8518707557316</v>
+        <v>842.8518707557198</v>
       </c>
       <c r="Y9" t="n">
-        <v>635.0915719907778</v>
+        <v>635.0915719907659</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="C10" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="D10" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="E10" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="F10" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="G10" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="H10" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="I10" t="n">
-        <v>42.05135777397488</v>
+        <v>42.05135777397464</v>
       </c>
       <c r="J10" t="n">
-        <v>55.58866215860156</v>
+        <v>55.58866215860098</v>
       </c>
       <c r="K10" t="n">
-        <v>207.6714484717177</v>
+        <v>207.6714484717165</v>
       </c>
       <c r="L10" t="n">
-        <v>457.8114892847503</v>
+        <v>457.8114892847484</v>
       </c>
       <c r="M10" t="n">
-        <v>731.9382131949085</v>
+        <v>731.9382131949059</v>
       </c>
       <c r="N10" t="n">
-        <v>1004.981432735691</v>
+        <v>1004.981432735687</v>
       </c>
       <c r="O10" t="n">
-        <v>1241.164743792818</v>
+        <v>1241.164743792814</v>
       </c>
       <c r="P10" t="n">
-        <v>1419.739686101113</v>
+        <v>1419.739686101108</v>
       </c>
       <c r="Q10" t="n">
-        <v>1459.940639733128</v>
+        <v>1459.940639733123</v>
       </c>
       <c r="R10" t="n">
-        <v>1349.614753360155</v>
+        <v>1459.940639733123</v>
       </c>
       <c r="S10" t="n">
-        <v>1246.751521591784</v>
+        <v>1260.311015640181</v>
       </c>
       <c r="T10" t="n">
-        <v>1023.037301694804</v>
+        <v>1260.311015640181</v>
       </c>
       <c r="U10" t="n">
-        <v>733.9095717847053</v>
+        <v>995.7910317450791</v>
       </c>
       <c r="V10" t="n">
-        <v>733.9095717847053</v>
+        <v>741.1065435391922</v>
       </c>
       <c r="W10" t="n">
-        <v>444.4924017477447</v>
+        <v>451.6893735022317</v>
       </c>
       <c r="X10" t="n">
-        <v>444.4924017477447</v>
+        <v>223.6998226042143</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.6998226042146</v>
+        <v>223.6998226042143</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,37 +5255,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5738,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438171</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400706</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121636</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998278</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998278</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998278</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138407</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703105</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>160.7422054838785</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438171</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
@@ -6379,7 +6379,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.0944824954151</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111724</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438163</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319341</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656835</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345487</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.34019938252</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973198</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547836</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838288</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518753</v>
       </c>
       <c r="X31" t="n">
         <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400518</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438163</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384026</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797197</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382519</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111724</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438163</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,70 +7069,70 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797197</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.33868158239</v>
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468477</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468477</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438163</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973198</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7363,13 +7363,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192615</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7421,40 +7421,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7476,31 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438164</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7546,70 +7546,70 @@
         <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>691.1951506745243</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7801,22 +7801,22 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382519</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127174</v>
+        <v>97.32166909127214</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446515</v>
+        <v>106.7437663446522</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127288</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.58094764132116</v>
+        <v>3.580947641321842</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>166.098778069092</v>
+        <v>166.0987780690901</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-3.753033448377305e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-4.889901825593466e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619748</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>62.02190834081483</v>
       </c>
       <c r="D2" t="n">
-        <v>339.0540044631937</v>
+        <v>275.1715493145788</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>349.107843760138</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862911</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117139</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.6726449153101</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.705344245268947</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.5498640939316</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>15.00954930701792</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911926</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>274462.8686734685</v>
+        <v>274462.8686734651</v>
       </c>
       <c r="E3" t="n">
-        <v>617754.2692755844</v>
+        <v>617754.2692755878</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.189723991935733e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>88426.87241274583</v>
+        <v>88426.87241274581</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.925935405073687e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>66291.64277620219</v>
+        <v>66291.64277620151</v>
       </c>
       <c r="M3" t="n">
-        <v>161251.5141937642</v>
+        <v>161251.5141937651</v>
       </c>
       <c r="N3" t="n">
-        <v>8.168763312192293e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363185</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151366.743103778</v>
+        <v>151366.7431037779</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>171144.1979807751</v>
+        <v>171144.197980776</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768857</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768787</v>
-      </c>
       <c r="I4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768854</v>
       </c>
       <c r="J4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486218</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486218</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486234</v>
+        <v>17938.00358486216</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486217</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486217</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486232</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426617</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>83888.39126761613</v>
+        <v>83888.39126761589</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26494,19 @@
         <v>103164.1158539154</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="P5" t="n">
         <v>103164.1158539154</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-894502.5268992367</v>
+        <v>-894932.0857658259</v>
       </c>
       <c r="C6" t="n">
         <v>-312485.7695349706</v>
       </c>
       <c r="D6" t="n">
-        <v>-529495.4579218598</v>
+        <v>-529495.457921857</v>
       </c>
       <c r="E6" t="n">
-        <v>-728823.9434212603</v>
+        <v>-728858.6813466994</v>
       </c>
       <c r="F6" t="n">
-        <v>-111069.674145676</v>
+        <v>-111104.4120711117</v>
       </c>
       <c r="G6" t="n">
-        <v>-111069.674145676</v>
+        <v>-111104.4120711117</v>
       </c>
       <c r="H6" t="n">
-        <v>-111069.6741456758</v>
+        <v>-111104.4120711117</v>
       </c>
       <c r="I6" t="n">
-        <v>-111069.674145676</v>
+        <v>-111104.4120711117</v>
       </c>
       <c r="J6" t="n">
         <v>-209528.9918515236</v>
       </c>
       <c r="K6" t="n">
-        <v>-121102.1194387778</v>
+        <v>-121102.1194387779</v>
       </c>
       <c r="L6" t="n">
-        <v>-187393.7622149799</v>
+        <v>-187393.7622149792</v>
       </c>
       <c r="M6" t="n">
-        <v>-282353.633632542</v>
+        <v>-282353.6336325427</v>
       </c>
       <c r="N6" t="n">
-        <v>-121102.1194387778</v>
+        <v>-121102.1194387776</v>
       </c>
       <c r="O6" t="n">
-        <v>-140529.8374324096</v>
+        <v>-140529.8374324094</v>
       </c>
       <c r="P6" t="n">
         <v>-121102.1194387778</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203965</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203964</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203965</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>839.5302458438179</v>
+        <v>839.5302458438151</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26762,16 +26762,16 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>525.641972174686</v>
+        <v>525.641972174683</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.237154989919666e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920398</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.593645850204796e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.021095414024037e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225.4752320743398</v>
+        <v>225.4752320743369</v>
       </c>
       <c r="E3" t="n">
-        <v>528.4452544978559</v>
+        <v>528.4452544978589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>261.9280921731799</v>
+        <v>261.9280921731769</v>
       </c>
       <c r="E4" t="n">
-        <v>647.0663159249624</v>
+        <v>647.0663159249656</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="L4" t="n">
-        <v>261.9280921731797</v>
+        <v>261.9280921731769</v>
       </c>
       <c r="M4" t="n">
-        <v>647.0663159249624</v>
+        <v>647.0663159249656</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.237154989919666e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920398</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>261.9280921731799</v>
+        <v>261.9280921731769</v>
       </c>
       <c r="M4" t="n">
-        <v>647.0663159249624</v>
+        <v>647.0663159249656</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>303.2509834301927</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>63.726330885572</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>1.892553355182429</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.9292172232284</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117168</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>68.85930196775706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.2512337886462</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>297.3641166365628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>47.3678104088478</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.53091770879374</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81113036005095</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117141</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.8872062752398</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>226.6154952883476</v>
+        <v>105.4020063102878</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>132.1123490750255</v>
       </c>
       <c r="T8" t="n">
         <v>208.3218047352618</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>59.96269216093177</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>57.22201658359944</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5377351249805</v>
       </c>
       <c r="H9" t="n">
-        <v>94.79539139358998</v>
+        <v>94.79539139359004</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>27.22387407901932</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.4770723577568</v>
       </c>
       <c r="H10" t="n">
-        <v>148.7671629921075</v>
+        <v>148.7671629921076</v>
       </c>
       <c r="I10" t="n">
-        <v>109.9231625788755</v>
+        <v>109.9231625788756</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>109.2226275092431</v>
       </c>
       <c r="S10" t="n">
-        <v>95.79872840132394</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.4770776980095</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>24.36166855484669</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.374995963191225</v>
+        <v>3.374995963191214</v>
       </c>
       <c r="H8" t="n">
-        <v>34.56417740803214</v>
+        <v>34.56417740803203</v>
       </c>
       <c r="I8" t="n">
-        <v>130.1145318709298</v>
+        <v>130.1145318709294</v>
       </c>
       <c r="J8" t="n">
-        <v>286.4485636309015</v>
+        <v>286.4485636309005</v>
       </c>
       <c r="K8" t="n">
-        <v>429.3121427527861</v>
+        <v>429.3121427527847</v>
       </c>
       <c r="L8" t="n">
-        <v>532.5996754612997</v>
+        <v>532.5996754612979</v>
       </c>
       <c r="M8" t="n">
-        <v>592.6197599217016</v>
+        <v>592.6197599216997</v>
       </c>
       <c r="N8" t="n">
-        <v>602.2089672021187</v>
+        <v>602.2089672021168</v>
       </c>
       <c r="O8" t="n">
-        <v>568.6488510931359</v>
+        <v>568.6488510931341</v>
       </c>
       <c r="P8" t="n">
-        <v>485.3286382518525</v>
+        <v>485.3286382518509</v>
       </c>
       <c r="Q8" t="n">
-        <v>364.4615953200666</v>
+        <v>364.4615953200654</v>
       </c>
       <c r="R8" t="n">
-        <v>212.004590172811</v>
+        <v>212.0045901728103</v>
       </c>
       <c r="S8" t="n">
-        <v>76.90772051122012</v>
+        <v>76.90772051121986</v>
       </c>
       <c r="T8" t="n">
-        <v>14.7740448288696</v>
+        <v>14.77404482886955</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2699996770552979</v>
+        <v>0.2699996770552971</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.805782038230099</v>
+        <v>1.805782038230093</v>
       </c>
       <c r="H9" t="n">
-        <v>17.44005284290648</v>
+        <v>17.44005284290643</v>
       </c>
       <c r="I9" t="n">
-        <v>62.17275877239595</v>
+        <v>62.17275877239575</v>
       </c>
       <c r="J9" t="n">
-        <v>170.6068021294498</v>
+        <v>170.6068021294493</v>
       </c>
       <c r="K9" t="n">
-        <v>291.5941986908664</v>
+        <v>291.5941986908655</v>
       </c>
       <c r="L9" t="n">
-        <v>392.0843850990397</v>
+        <v>392.0843850990384</v>
       </c>
       <c r="M9" t="n">
-        <v>457.5439839848807</v>
+        <v>457.5439839848792</v>
       </c>
       <c r="N9" t="n">
-        <v>469.6538117763449</v>
+        <v>469.6538117763433</v>
       </c>
       <c r="O9" t="n">
-        <v>429.6414834555621</v>
+        <v>429.6414834555607</v>
       </c>
       <c r="P9" t="n">
-        <v>344.8251683353599</v>
+        <v>344.8251683353587</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.5064931607403</v>
+        <v>230.5064931607396</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1168883034443</v>
+        <v>112.1168883034439</v>
       </c>
       <c r="S9" t="n">
-        <v>33.54160935045817</v>
+        <v>33.54160935045807</v>
       </c>
       <c r="T9" t="n">
-        <v>7.27856882953272</v>
+        <v>7.278568829532697</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1188014498835592</v>
+        <v>0.1188014498835588</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.513907000701966</v>
+        <v>1.513907000701961</v>
       </c>
       <c r="H10" t="n">
-        <v>13.46000951533204</v>
+        <v>13.460009515332</v>
       </c>
       <c r="I10" t="n">
-        <v>45.52731234838279</v>
+        <v>45.52731234838264</v>
       </c>
       <c r="J10" t="n">
-        <v>107.033224949629</v>
+        <v>107.0332249496287</v>
       </c>
       <c r="K10" t="n">
-        <v>175.8884678997375</v>
+        <v>175.888467899737</v>
       </c>
       <c r="L10" t="n">
-        <v>225.076682631636</v>
+        <v>225.0766826316353</v>
       </c>
       <c r="M10" t="n">
-        <v>237.311803755491</v>
+        <v>237.3118037554902</v>
       </c>
       <c r="N10" t="n">
-        <v>231.6690594801474</v>
+        <v>231.6690594801467</v>
       </c>
       <c r="O10" t="n">
-        <v>213.9838731537653</v>
+        <v>213.9838731537646</v>
       </c>
       <c r="P10" t="n">
-        <v>183.100170339445</v>
+        <v>183.1001703394444</v>
       </c>
       <c r="Q10" t="n">
-        <v>126.7690671224165</v>
+        <v>126.7690671224161</v>
       </c>
       <c r="R10" t="n">
-        <v>68.07076386792659</v>
+        <v>68.07076386792636</v>
       </c>
       <c r="S10" t="n">
-        <v>26.38327018496063</v>
+        <v>26.38327018496054</v>
       </c>
       <c r="T10" t="n">
-        <v>6.468511730272037</v>
+        <v>6.468511730272016</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08257674549283463</v>
+        <v>0.08257674549283436</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31847,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622651</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622651</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33743,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622651</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>245.8118639189563</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,25 +34217,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622651</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34293,31 +34293,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
         <v>0.1345549672467222</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,25 +34454,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>754.0002396832315</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34530,31 +34530,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
         <v>0.1345549672467222</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877681</v>
+        <v>125.9385470877685</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966395</v>
+        <v>106.3800667966403</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877692</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.4026591042152</v>
+        <v>105.4026591042143</v>
       </c>
       <c r="K8" t="n">
-        <v>209.2222917078056</v>
+        <v>209.2222917078042</v>
       </c>
       <c r="L8" t="n">
-        <v>296.8332604913125</v>
+        <v>296.8332604913107</v>
       </c>
       <c r="M8" t="n">
-        <v>362.2735266944289</v>
+        <v>362.273526694427</v>
       </c>
       <c r="N8" t="n">
-        <v>372.7959036055278</v>
+        <v>372.7959036055259</v>
       </c>
       <c r="O8" t="n">
-        <v>338.5506396714492</v>
+        <v>338.5506396714474</v>
       </c>
       <c r="P8" t="n">
-        <v>254.095642496583</v>
+        <v>254.0956424965814</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.1559054456172</v>
+        <v>142.155905445616</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>43.76917546278315</v>
+        <v>43.76917546278258</v>
       </c>
       <c r="K9" t="n">
-        <v>153.7527597165075</v>
+        <v>153.7527597165065</v>
       </c>
       <c r="L9" t="n">
-        <v>253.5300053191655</v>
+        <v>253.5300053191642</v>
       </c>
       <c r="M9" t="n">
-        <v>315.4099500628624</v>
+        <v>315.4099500628608</v>
       </c>
       <c r="N9" t="n">
-        <v>338.3120996930115</v>
+        <v>338.3120996930101</v>
       </c>
       <c r="O9" t="n">
-        <v>287.0452390111177</v>
+        <v>287.0452390111163</v>
       </c>
       <c r="P9" t="n">
-        <v>376.9495389901217</v>
+        <v>376.9495389901186</v>
       </c>
       <c r="Q9" t="n">
-        <v>300.6020068105679</v>
+        <v>300.6020068105672</v>
       </c>
       <c r="R9" t="n">
-        <v>11.95905415080112</v>
+        <v>11.95905415080075</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.67404483295624</v>
+        <v>13.6740448329559</v>
       </c>
       <c r="K10" t="n">
-        <v>153.6189760738547</v>
+        <v>153.6189760738541</v>
       </c>
       <c r="L10" t="n">
-        <v>252.6667078919522</v>
+        <v>252.6667078919514</v>
       </c>
       <c r="M10" t="n">
-        <v>276.8956807173315</v>
+        <v>276.8956807173308</v>
       </c>
       <c r="N10" t="n">
-        <v>275.801231859376</v>
+        <v>275.8012318593753</v>
       </c>
       <c r="O10" t="n">
-        <v>238.569001067805</v>
+        <v>238.5690010678043</v>
       </c>
       <c r="P10" t="n">
-        <v>180.3787296043385</v>
+        <v>180.3787296043379</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.6070238707221</v>
+        <v>40.60702387072169</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016747</v>
@@ -36762,7 +36762,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402468</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111714</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930851</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980854</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402468</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111714</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.557074493085</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980853</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402468</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111714</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.557074493085</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980853</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>103.677829996938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111714</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.557074493085</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980853</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
         <v>144.6869047919381</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402469</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>622.6585275998982</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.557074493085</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980853</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
